--- a/src/zh/openpyxl/rows_and_columns/Group.xlsx
+++ b/src/zh/openpyxl/rows_and_columns/Group.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fruit" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Fish" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cakes" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Sweets" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sandwich" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
@@ -75,11 +76,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -504,7 +505,7 @@
   </sheetPr>
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -556,7 +557,47 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="0.886111111111111" bottom="0.886111111111111" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.94140625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="1" ht="12.8" customHeight="1" s="3">
+      <c r="A1" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,标准"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,标准"&amp;12 页 &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>